--- a/Excel/4_2 DATA afr/HilltopHS.xlsx
+++ b/Excel/4_2 DATA afr/HilltopHS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Sandra\Documents\00000 CAT Gr10\DVD CAT Gr10 2nd TEACHER\RTT Gr10 Afrikaans\2 DATA vir leerders\4_2 DATA afr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Skool Werk\Excel\4_2 DATA afr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -396,30 +396,11 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -466,6 +447,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,23 +569,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -619,23 +604,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -818,7 +786,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -837,11 +805,11 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -849,26 +817,26 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="37">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="38">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="31">
         <v>10</v>
       </c>
     </row>
@@ -881,40 +849,40 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="11" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="47" t="s">
         <v>35</v>
       </c>
     </row>
@@ -940,15 +908,18 @@
       <c r="G6" s="23">
         <v>12</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="35"/>
+      <c r="H6" s="25">
+        <f>F6+G6</f>
+        <v>27</v>
+      </c>
+      <c r="I6" s="28"/>
       <c r="J6" s="24">
         <v>250</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="43"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
@@ -972,15 +943,18 @@
       <c r="G7" s="13">
         <v>7</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="25">
+        <f t="shared" ref="H7:H15" si="0">F7+G7</f>
+        <v>34</v>
+      </c>
+      <c r="I7" s="29"/>
       <c r="J7" s="14">
         <v>250</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="40"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
@@ -1004,13 +978,16 @@
       <c r="G8" s="13">
         <v>12</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I8" s="29"/>
       <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="40"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
     </row>
@@ -1036,13 +1013,16 @@
       <c r="G9" s="13">
         <v>14</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I9" s="29"/>
       <c r="J9" s="14">
         <v>0</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="40"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
     </row>
@@ -1068,13 +1048,16 @@
       <c r="G10" s="13">
         <v>22</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I10" s="29"/>
       <c r="J10" s="14">
         <v>250</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="40"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
     </row>
@@ -1100,13 +1083,16 @@
       <c r="G11" s="13">
         <v>21</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="25">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I11" s="29"/>
       <c r="J11" s="14">
         <v>0</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="40"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
     </row>
@@ -1132,13 +1118,16 @@
       <c r="G12" s="13">
         <v>8</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I12" s="29"/>
       <c r="J12" s="14">
         <v>250</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="40"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1149,51 +1138,63 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
       <c r="K13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="41"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="19"/>
       <c r="F14" s="15"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="19"/>
       <c r="F15" s="17"/>
-      <c r="I15" s="47" t="s">
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="I15:K15"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
